--- a/data/trans_dic/P1423-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03063832265669285</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05556059101877262</v>
+        <v>0.05556059101877261</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01328028553343878</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002279768693391854</v>
+        <v>0.001975143605250862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004529004681332775</v>
+        <v>0.002522156190693666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008215351894008275</v>
+        <v>0.009427997142939019</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01371378669213252</v>
+        <v>0.01372506503567357</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006466874348566596</v>
+        <v>0.006238110945244181</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0147928265035786</v>
+        <v>0.01669622745803257</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02821972262413983</v>
+        <v>0.02889341992441547</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007439732237030303</v>
+        <v>0.007455607795749102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006168457421773821</v>
+        <v>0.00567347006249075</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01212521346812493</v>
+        <v>0.01184171449605749</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02353834026457461</v>
+        <v>0.02378589700359054</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009428097064044787</v>
+        <v>0.009660048356995597</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02001419018843436</v>
+        <v>0.01958243794039249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02884275243001436</v>
+        <v>0.02404497407303826</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06303030423531145</v>
+        <v>0.06131646004544309</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04304293494804141</v>
+        <v>0.04094935830692228</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03441171430328051</v>
+        <v>0.03204688090222527</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05403176800869248</v>
+        <v>0.05357798023093976</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09691415108285664</v>
+        <v>0.1013860982498599</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02264051075893369</v>
+        <v>0.02213763969524491</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02244721113380749</v>
+        <v>0.02190607509596368</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03333675635419734</v>
+        <v>0.03268404337758661</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0628794214972795</v>
+        <v>0.06312414513603029</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01128912780528708</v>
+        <v>0.01090615559148348</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01839375523148347</v>
+        <v>0.01870109514370716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004912075200468641</v>
+        <v>0.004988884316399377</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01461222525623134</v>
+        <v>0.0152353599189674</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0226484574708844</v>
+        <v>0.02356806048570623</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02954991614377288</v>
+        <v>0.0286518763597225</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01391973782879173</v>
+        <v>0.01402621819456218</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04882582678001871</v>
+        <v>0.04862797418895943</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01889095942335023</v>
+        <v>0.01903935285312045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02745871709683174</v>
+        <v>0.02790702023017319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01169032888480771</v>
+        <v>0.0116443002799292</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.036424916297758</v>
+        <v>0.03667227594129745</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03105191945086798</v>
+        <v>0.03097492256398359</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04961268779718071</v>
+        <v>0.04787007410203977</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02211595070445074</v>
+        <v>0.02322435710235458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05374772136513736</v>
+        <v>0.0536894168674663</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05344717387849413</v>
+        <v>0.05229776259919683</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06465253929707178</v>
+        <v>0.06396467318121696</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03844502481483571</v>
+        <v>0.04120834861902602</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09957948604941518</v>
+        <v>0.1000983982507351</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03639432539299137</v>
+        <v>0.03579238487319745</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05057106574305521</v>
+        <v>0.0502718981175258</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02716658353347369</v>
+        <v>0.02732305108263912</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06938702492319199</v>
+        <v>0.0689970752635904</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04615131815939719</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06675693290734025</v>
+        <v>0.06675693290734024</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01699288294865816</v>
+        <v>0.01830255201158138</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02468059349207724</v>
+        <v>0.0233032966306248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01502518164644961</v>
+        <v>0.01527626023805058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03577657433643809</v>
+        <v>0.03794389044345265</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04141255261428407</v>
+        <v>0.0408536158507765</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07747159819210904</v>
+        <v>0.07674992561168988</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05258537994755458</v>
+        <v>0.05015136108600715</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06193895736550518</v>
+        <v>0.06170538968013703</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03455643441735491</v>
+        <v>0.03377652231061792</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05592016710535296</v>
+        <v>0.05561868140179412</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03660548446425393</v>
+        <v>0.0353325800166085</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05396395761415547</v>
+        <v>0.05415183826903108</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04553980745105192</v>
+        <v>0.04808839684408083</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05676421156260443</v>
+        <v>0.05732657577877212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03926606857627225</v>
+        <v>0.04038232028802757</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07646109546604864</v>
+        <v>0.07549040411812999</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07691099172497012</v>
+        <v>0.08044428161287284</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1234424878720843</v>
+        <v>0.121020955217628</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08884500067443792</v>
+        <v>0.08827489588882685</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1006511593295229</v>
+        <v>0.0983548780237536</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0571125866159769</v>
+        <v>0.05738748715975822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08450294492240479</v>
+        <v>0.08427029708772826</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05860081978156376</v>
+        <v>0.05774869048084948</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0808824667763591</v>
+        <v>0.08118975653562087</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04035848928725961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07765256422980259</v>
+        <v>0.07765256422980257</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1120740867732523</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01708502215420512</v>
+        <v>0.01708365352773458</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03067972275217854</v>
+        <v>0.02941021799554063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02736450306885468</v>
+        <v>0.0274558127758801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05852103548034832</v>
+        <v>0.0591336507421941</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08629949437045996</v>
+        <v>0.08628392988281934</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.097368629370804</v>
+        <v>0.09837600212499803</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0919932427985385</v>
+        <v>0.09463020032444361</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1148881127633506</v>
+        <v>0.1142302874680692</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05529656466629629</v>
+        <v>0.05677360480727062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06992497313173622</v>
+        <v>0.07038070349808384</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06492172381605826</v>
+        <v>0.06395913465608646</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09230327664433527</v>
+        <v>0.09193685504495533</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04858753561384485</v>
+        <v>0.04810767818832043</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06533825865375076</v>
+        <v>0.06634577335785705</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05965247215268565</v>
+        <v>0.05851447837333817</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.102007261623992</v>
+        <v>0.1029476898736722</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1409776037381524</v>
+        <v>0.1395919988065843</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.150748269726186</v>
+        <v>0.1552251604687261</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1458960406627733</v>
+        <v>0.145923020697019</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.154166513126729</v>
+        <v>0.1550807923594905</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08717088913967022</v>
+        <v>0.08764148122984683</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1013709786263006</v>
+        <v>0.1024033313925912</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09528361737278626</v>
+        <v>0.0970733849842312</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1213085195795594</v>
+        <v>0.1218468177536453</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1783360497902035</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1758879175368908</v>
+        <v>0.1758879175368909</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09327087155246694</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03575810325857368</v>
+        <v>0.03567346954091009</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04992982201903205</v>
+        <v>0.04832063760917723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04422733930738379</v>
+        <v>0.04542420495707694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06931897815047175</v>
+        <v>0.07089701023530318</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09377760854772565</v>
+        <v>0.09974917410638183</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1478118548714914</v>
+        <v>0.1485000658563439</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1443510267357785</v>
+        <v>0.1417939336139183</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.152387569367002</v>
+        <v>0.1530119097212607</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07442169362503875</v>
+        <v>0.07520158713314476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1084613371138181</v>
+        <v>0.1085901883206266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1023512020782197</v>
+        <v>0.1016340349193947</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1179134488187241</v>
+        <v>0.1164376666478005</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08205364150408305</v>
+        <v>0.0804725085324625</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1007675167187232</v>
+        <v>0.1013675246290374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09478960052918206</v>
+        <v>0.09547835790361148</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1151504709415052</v>
+        <v>0.1159095019035892</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1650548401217497</v>
+        <v>0.1681429832888107</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2223090334571405</v>
+        <v>0.2195053518729346</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2123833385711256</v>
+        <v>0.2123411947214419</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2016401902704111</v>
+        <v>0.1999521099949233</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1146768838851368</v>
+        <v>0.1151427070128103</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1536183869592913</v>
+        <v>0.1543824118097526</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1484542856832483</v>
+        <v>0.1486828602822706</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1517256350035407</v>
+        <v>0.1512400880521767</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03232935713906984</v>
+        <v>0.02990485201665264</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02967761118207295</v>
+        <v>0.02919527397886215</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01445890862545929</v>
+        <v>0.01424890268009654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03175245813970656</v>
+        <v>0.0306899121061618</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08675777563025767</v>
+        <v>0.08809555133451624</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.154051221671972</v>
+        <v>0.1548136542943506</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1327093799371929</v>
+        <v>0.1360397464056952</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1340948884254764</v>
+        <v>0.1329176917160477</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06813285772643157</v>
+        <v>0.06902365252316837</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.104828693681755</v>
+        <v>0.1033987113637284</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08377637178081891</v>
+        <v>0.08284050723654388</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08798308149776253</v>
+        <v>0.0883246098752008</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07907839309153587</v>
+        <v>0.07889038169027603</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08397772331050146</v>
+        <v>0.08972189660667591</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04980897218589374</v>
+        <v>0.05037601708333001</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06562365034586669</v>
+        <v>0.06367556598791466</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.157060871248837</v>
+        <v>0.1550581605685694</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2400167511229602</v>
+        <v>0.2412817334626303</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2130421015955016</v>
+        <v>0.2153889736681987</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1866937110734588</v>
+        <v>0.1836870413311038</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1113262111413243</v>
+        <v>0.1123968961630916</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.160961014566867</v>
+        <v>0.1588953449551502</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1297308927270389</v>
+        <v>0.1310212562398819</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1208106328838814</v>
+        <v>0.121828623498904</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.06001099590849027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09033425123914524</v>
+        <v>0.09033425123914522</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.097327204741812</v>
@@ -1501,7 +1501,7 @@
         <v>0.1515031150670848</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1641874702719569</v>
+        <v>0.1641874702719568</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.08687801378855955</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04025689504666925</v>
+        <v>0.03991274430206146</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03911643983011891</v>
+        <v>0.03945109954448409</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03653335184035159</v>
+        <v>0.03837846804627854</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06693753518343758</v>
+        <v>0.06581936893763259</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06575874176299289</v>
+        <v>0.06600092315204534</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.153201215960061</v>
+        <v>0.1523932995034817</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1135763354261461</v>
+        <v>0.1119146361879196</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1400690868859188</v>
+        <v>0.1388782022873485</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06256349056834656</v>
+        <v>0.06411793098316498</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1142182168763586</v>
+        <v>0.1149622579021401</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09188142235372206</v>
+        <v>0.09120843480701517</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1175459976896343</v>
+        <v>0.1172928926277974</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.10758697332458</v>
+        <v>0.1098809485823723</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1159142072039965</v>
+        <v>0.1191929300364863</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09151110924647339</v>
+        <v>0.08852868538566754</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.122614530243629</v>
+        <v>0.1181433361337729</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1353832272838852</v>
+        <v>0.1374152497804399</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2337814262298933</v>
+        <v>0.232830705487396</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1945206313604221</v>
+        <v>0.1927145089408455</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1932912472808889</v>
+        <v>0.1904782177356076</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1142465550968472</v>
+        <v>0.1167887036753886</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1743239734165759</v>
+        <v>0.1733610069366771</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1462474053387752</v>
+        <v>0.1440114060102267</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1539507445789125</v>
+        <v>0.1566441386796937</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03498303961878504</v>
+        <v>0.0349425746676977</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02735774216036677</v>
+        <v>0.02671871535208471</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05274862338834924</v>
+        <v>0.05284156113167961</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1038388704560248</v>
+        <v>0.1032210723958697</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09236435696909912</v>
+        <v>0.09235842159472096</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1131735126699529</v>
+        <v>0.1128193419395744</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07208381372805435</v>
+        <v>0.07205781917207388</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06186985075601258</v>
+        <v>0.06161498336982358</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.08626347430456352</v>
+        <v>0.08585809493221654</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04967038407956309</v>
+        <v>0.05011630025005198</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03899747741607205</v>
+        <v>0.03905860353258332</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06945010460675888</v>
+        <v>0.06978388707708502</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1256947527940435</v>
+        <v>0.1250849597637257</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1132006890924918</v>
+        <v>0.1143308499696666</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1310463898084182</v>
+        <v>0.132085015254281</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0850656742327586</v>
+        <v>0.08532344135043349</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07434786254695809</v>
+        <v>0.07442686018912092</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09881609770852656</v>
+        <v>0.09845189202698827</v>
       </c>
     </row>
     <row r="28">
@@ -2014,37 +2014,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1035</v>
+        <v>897</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1900</v>
+        <v>1058</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3350</v>
+        <v>3845</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6411</v>
+        <v>6416</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2782</v>
+        <v>2684</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5854</v>
+        <v>6608</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10230</v>
+        <v>10474</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7154</v>
+        <v>7169</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5455</v>
+        <v>5017</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9885</v>
+        <v>9654</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>18132</v>
+        <v>18322</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4658</v>
+        <v>4773</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9089</v>
+        <v>8893</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12098</v>
+        <v>10086</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25703</v>
+        <v>25004</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20122</v>
+        <v>19143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14805</v>
+        <v>13788</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21383</v>
+        <v>21204</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35133</v>
+        <v>36754</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21770</v>
+        <v>21287</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19852</v>
+        <v>19373</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>27177</v>
+        <v>26645</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>48436</v>
+        <v>48625</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8303</v>
+        <v>8021</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12638</v>
+        <v>12849</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2901</v>
+        <v>2946</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6968</v>
+        <v>7266</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14166</v>
+        <v>14742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18033</v>
+        <v>17485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7844</v>
+        <v>7904</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24498</v>
+        <v>24398</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25710</v>
+        <v>25912</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>35623</v>
+        <v>36205</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13491</v>
+        <v>13438</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>35646</v>
+        <v>35888</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22838</v>
+        <v>22782</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34088</v>
+        <v>32891</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13059</v>
+        <v>13714</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25632</v>
+        <v>25604</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33431</v>
+        <v>32712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39455</v>
+        <v>39035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21665</v>
+        <v>23223</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>49962</v>
+        <v>50223</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>49532</v>
+        <v>48713</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>65608</v>
+        <v>65220</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31351</v>
+        <v>31532</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>67904</v>
+        <v>67522</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10853</v>
+        <v>11689</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16829</v>
+        <v>15890</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10053</v>
+        <v>10221</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22211</v>
+        <v>23557</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28564</v>
+        <v>28179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>54972</v>
+        <v>54460</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34779</v>
+        <v>33169</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>38600</v>
+        <v>38454</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45905</v>
+        <v>44869</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>77809</v>
+        <v>77390</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>48703</v>
+        <v>47009</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>67133</v>
+        <v>67366</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29085</v>
+        <v>30713</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38705</v>
+        <v>39089</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26273</v>
+        <v>27020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47470</v>
+        <v>46867</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>53049</v>
+        <v>55486</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>87592</v>
+        <v>85873</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>58761</v>
+        <v>58384</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62725</v>
+        <v>61294</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>75869</v>
+        <v>76234</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>117581</v>
+        <v>117257</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77967</v>
+        <v>76834</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>100620</v>
+        <v>101002</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18856</v>
+        <v>18076</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17679</v>
+        <v>17738</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41001</v>
+        <v>41430</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>44500</v>
+        <v>44492</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>59810</v>
+        <v>60429</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59711</v>
+        <v>61422</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>84659</v>
+        <v>84175</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>57220</v>
+        <v>58749</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>85929</v>
+        <v>86489</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>84082</v>
+        <v>82835</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>132686</v>
+        <v>132160</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25224</v>
+        <v>24975</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40158</v>
+        <v>40777</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38538</v>
+        <v>37803</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>71468</v>
+        <v>72127</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>72694</v>
+        <v>71979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>92599</v>
+        <v>95349</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>94698</v>
+        <v>94715</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>113603</v>
+        <v>114277</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>90203</v>
+        <v>90690</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>124573</v>
+        <v>125841</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>123404</v>
+        <v>125722</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>174381</v>
+        <v>175155</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13828</v>
+        <v>13795</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>21441</v>
+        <v>20750</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21137</v>
+        <v>21709</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>42239</v>
+        <v>43201</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>37885</v>
+        <v>40297</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>66190</v>
+        <v>66498</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>71721</v>
+        <v>70450</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>92782</v>
+        <v>93162</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>58845</v>
+        <v>59462</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>95145</v>
+        <v>95258</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>99769</v>
+        <v>99070</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>143642</v>
+        <v>141845</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31731</v>
+        <v>31120</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43272</v>
+        <v>43530</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45302</v>
+        <v>45631</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>70166</v>
+        <v>70629</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>66680</v>
+        <v>67927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>99550</v>
+        <v>98294</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>105522</v>
+        <v>105502</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>122770</v>
+        <v>121742</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>90675</v>
+        <v>91043</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>134759</v>
+        <v>135429</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>144708</v>
+        <v>144931</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>184832</v>
+        <v>184241</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9459</v>
+        <v>8750</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9194</v>
+        <v>9044</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4834</v>
+        <v>4764</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>12926</v>
+        <v>12493</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>29752</v>
+        <v>30211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>54534</v>
+        <v>54803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>50133</v>
+        <v>51391</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>58890</v>
+        <v>58373</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>43300</v>
+        <v>43866</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>69583</v>
+        <v>68634</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>59656</v>
+        <v>58990</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>74455</v>
+        <v>74744</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>23137</v>
+        <v>23082</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>26015</v>
+        <v>27795</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16653</v>
+        <v>16842</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26714</v>
+        <v>25921</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>53862</v>
+        <v>53175</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>84965</v>
+        <v>85413</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>80479</v>
+        <v>81366</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>81990</v>
+        <v>80669</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>70750</v>
+        <v>71430</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>106843</v>
+        <v>105472</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>92380</v>
+        <v>93299</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>102236</v>
+        <v>103097</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8449</v>
+        <v>8377</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9773</v>
+        <v>9857</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9389</v>
+        <v>9863</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20764</v>
+        <v>20417</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21957</v>
+        <v>22038</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>59592</v>
+        <v>59278</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>45450</v>
+        <v>44785</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>65077</v>
+        <v>64524</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>34021</v>
+        <v>34867</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>72966</v>
+        <v>73441</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>60381</v>
+        <v>59939</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>91075</v>
+        <v>90879</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>22581</v>
+        <v>23062</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28961</v>
+        <v>29780</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23518</v>
+        <v>22752</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>38035</v>
+        <v>36648</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>45206</v>
+        <v>45884</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>90936</v>
+        <v>90566</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>77841</v>
+        <v>77118</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>89805</v>
+        <v>88498</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>62126</v>
+        <v>63509</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>111363</v>
+        <v>110748</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>96109</v>
+        <v>94640</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>119282</v>
+        <v>121369</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>119879</v>
+        <v>119740</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>92862</v>
+        <v>90693</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>186348</v>
+        <v>186677</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>369157</v>
+        <v>366961</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>327389</v>
+        <v>327368</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>422924</v>
+        <v>421601</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>503280</v>
+        <v>503099</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>429308</v>
+        <v>427540</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>627111</v>
+        <v>624164</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>170209</v>
+        <v>171737</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>132371</v>
+        <v>132579</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>245351</v>
+        <v>246530</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>446857</v>
+        <v>444689</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>401245</v>
+        <v>405250</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>489714</v>
+        <v>493596</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>593918</v>
+        <v>595718</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>515892</v>
+        <v>516440</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>718365</v>
+        <v>715717</v>
       </c>
     </row>
     <row r="36">
